--- a/Project_1/MS_ExperimentalAnalysis.xlsx
+++ b/Project_1/MS_ExperimentalAnalysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\PycharmProjects\cs325\project1\project1_enumeration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\PycharmProjects\cs325\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="MS_Plots" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Experimental Time Runs</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>Algorithm 2: Better Enumeration</t>
+  </si>
+  <si>
+    <t>microseconds</t>
+  </si>
+  <si>
+    <t>log(N)</t>
+  </si>
+  <si>
+    <t>log(microseconds)</t>
+  </si>
+  <si>
+    <t>Algorithm 3: Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Algorithm 4: Linear Time</t>
   </si>
 </sst>
 </file>
@@ -517,8 +532,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -703,14 +719,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12073512378904981"/>
-                  <c:y val="4.9283861016704629E-2"/>
+                  <c:x val="0.18520606531190345"/>
+                  <c:y val="7.8512016974329454E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -874,14 +891,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8955387284129296E-2"/>
-                  <c:y val="-2.7094418788649342E-2"/>
+                  <c:x val="-7.1221519424821403E-3"/>
+                  <c:y val="-5.1754383143660203E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -996,6 +1014,156 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CCA-4D98-BE44-F4E34AE81C6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MS_Plots!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 3: Divide and Conquer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MS_Plots!$A$31:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MS_Plots!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBE2-4E4C-8D86-F32BE3FC0CA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MS_Plots!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 4: Linear Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MS_Plots!$A$44:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MS_Plots!$B$44:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBE2-4E4C-8D86-F32BE3FC0CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1259,6 +1427,1029 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15426167799469528"/>
+          <c:y val="0.82749718235504133"/>
+          <c:w val="0.66286757701120969"/>
+          <c:h val="0.14332704024832951"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>log N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs log Time (microseconds)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MS_Plots!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 1: Enumeration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MS_Plots!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MS_Plots!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0157787563890408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2944662261615929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.741387992479269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1921212221317052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5750954320148951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8524189929370012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7351524007400423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6072687191821533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1408796426056851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5073819084792044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FEF-47B8-9E13-7568A2125998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MS_Plots!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 2: Better Enumeration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MS_Plots!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8750612633917001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MS_Plots!$E$18:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9554953291841271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2180363312009446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5199854133927033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8876454273058512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1441661839044777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.321347763802958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9074914398737128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5255028433224274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8569867328027199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1156533732597618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1FEF-47B8-9E13-7568A2125998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MS_Plots!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 3: Divide and Conquer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MS_Plots!$D$31:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MS_Plots!$E$31:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1FEF-47B8-9E13-7568A2125998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MS_Plots!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Algorithm 4: Linear Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MS_Plots!$D$44:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MS_Plots!$E$44:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1FEF-47B8-9E13-7568A2125998}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="905216447"/>
+        <c:axId val="898631055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="905216447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898631055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="898631055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log microseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905216447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10956740429773919"/>
+          <c:y val="0.84056289814301621"/>
+          <c:w val="0.75225612101316652"/>
+          <c:h val="0.14208345431875247"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1365,6 +2556,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1881,20 +3112,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1914,6 +3661,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390DF5DB-4AC0-48C1-ABAA-8D77CC42C0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2219,207 +4002,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
       <c r="B5">
         <v>1.0369999999999999E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>B5*1000000</f>
+        <v>1037</v>
+      </c>
+      <c r="D5">
+        <f>LOG10(A5)</f>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="E5">
+        <f>LOG10(C5)</f>
+        <v>3.0157787563890408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
       <c r="B6">
         <v>1.97E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" ref="C6:C14" si="0">B6*1000000</f>
+        <v>1970</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D14" si="1">LOG10(A6)</f>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E14" si="2">LOG10(C6)</f>
+        <v>3.2944662261615929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
         <v>5.5129999999999997E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5513</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>3.741387992479269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>75</v>
       </c>
       <c r="B8">
         <v>1.5564E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>15564</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.8750612633917001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>4.1921212221317052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
       <c r="B9">
         <v>3.7592E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>37592</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>4.5750954320148951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>125</v>
       </c>
       <c r="B10">
         <v>7.1190000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>71190</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2.0969100130080562</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>4.8524189929370012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
       <c r="B11">
         <v>0.54344099999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>543441</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2.3979400086720375</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>5.7351524007400423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>500</v>
       </c>
       <c r="B12">
         <v>4.0482630000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4048263.0000000005</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>6.6072687191821533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>750</v>
       </c>
       <c r="B13">
         <v>13.83183</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>13831830</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.8750612633917001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>7.1408796426056851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
       </c>
       <c r="B14">
         <v>32.164878000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>32164878</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>7.5073819084792044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>250</v>
       </c>
       <c r="B18">
         <v>9.0259999999999993E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>B18*1000000</f>
+        <v>9026</v>
+      </c>
+      <c r="D18">
+        <f>LOG10(A18)</f>
+        <v>2.3979400086720375</v>
+      </c>
+      <c r="E18">
+        <f>LOG10(C18)</f>
+        <v>3.9554953291841271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>350</v>
       </c>
       <c r="B19">
         <v>1.6521000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" ref="C19:C27" si="3">B19*1000000</f>
+        <v>16521</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D27" si="4">LOG10(A19)</f>
+        <v>2.5440680443502757</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E27" si="5">LOG10(C19)</f>
+        <v>4.2180363312009446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>500</v>
       </c>
       <c r="B20">
         <v>3.3112000000000003E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>33112</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>4.5199854133927033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>750</v>
       </c>
       <c r="B21">
         <v>7.7204999999999996E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>77205</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>2.8750612633917001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>4.8876454273058512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1000</v>
       </c>
       <c r="B22">
         <v>0.13936899999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>139369</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>5.1441661839044777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1250</v>
       </c>
       <c r="B23">
         <v>0.20957899999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>209579</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>3.0969100130080562</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>5.321347763802958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2500</v>
       </c>
       <c r="B24">
         <v>0.80814900000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>808149</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>5.9074914398737128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5000</v>
       </c>
       <c r="B25">
         <v>3.3535349999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>3353535</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>6.5255028433224274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7500</v>
       </c>
       <c r="B26">
         <v>7.1942700000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>7194270</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>3.8750612633917001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>6.8569867328027199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10000</v>
       </c>
       <c r="B27">
         <v>13.051288</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>13051288</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>7.1156533732597618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>B31*1000000</f>
+        <v>0</v>
+      </c>
+      <c r="D31" t="e">
+        <f>LOG10(A31)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E31" t="e">
+        <f>LOG10(C31)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" ref="C32:C40" si="6">B32*1000000</f>
+        <v>0</v>
+      </c>
+      <c r="D32" t="e">
+        <f t="shared" ref="D32:D40" si="7">LOG10(A32)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" ref="E32:E40" si="8">LOG10(C32)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D33" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D34" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D36" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D38" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D39" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D40" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f>B44*1000000</f>
+        <v>0</v>
+      </c>
+      <c r="D44" t="e">
+        <f>LOG10(A44)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" t="e">
+        <f>LOG10(C44)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" ref="C45:C53" si="9">B45*1000000</f>
+        <v>0</v>
+      </c>
+      <c r="D45" t="e">
+        <f t="shared" ref="D45:D53" si="10">LOG10(A45)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" ref="E45:E53" si="11">LOG10(C45)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D46" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D47" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D48" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D49" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E49" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D50" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E50" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D51" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D52" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E52" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D53" t="e">
+        <f t="shared" si="10"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="11"/>
+        <v>#NUM!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project_1/MS_ExperimentalAnalysis.xlsx
+++ b/Project_1/MS_ExperimentalAnalysis.xlsx
@@ -726,10 +726,70 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18520606531190345"/>
-                  <c:y val="7.8512016974329454E-2"/>
+                  <c:x val="0.10666664773945846"/>
+                  <c:y val="0.36245913453171774"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Algorithm 2:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 3E-08x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 3E-06x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 0.0008x + 0.0391</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -898,10 +958,58 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1221519424821403E-3"/>
-                  <c:y val="-5.1754383143660203E-2"/>
+                  <c:x val="0.10816899489071843"/>
+                  <c:y val="-0.14470308024210121"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Algorithm 1:</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 1E-07x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 1E-06x + 0.0064</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9998</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1064,8 +1172,88 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8309852357129449E-2"/>
+                  <c:y val="-4.1253938671319053E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Algorithm 3:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 7E-06x - 0.0602</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1073,6 +1261,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1082,6 +1300,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14741199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.209649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31216500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47511900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.629521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.820044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7122189999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5342889999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3190799999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1280279999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1960,8 +2208,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1970,34 +2248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.3979400086720375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.5440680443502757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6989700043360187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.8750612633917001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.0969100130080562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.3979400086720375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.6989700043360187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.8750612633917001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,34 +2287,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.1685328384867768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.3214927952131497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.4943842082748757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.6768023981947549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.7990102221833562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.9138371553648668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.2335593119817663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5483020590285799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.7258365222433616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.8529693970082812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,143 +4766,203 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25000</v>
+      </c>
+      <c r="B31">
+        <v>0.14741199999999999</v>
+      </c>
       <c r="C31">
         <f>B31*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D31" t="e">
+        <v>147412</v>
+      </c>
+      <c r="D31">
         <f>LOG10(A31)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E31" t="e">
+        <v>4.3979400086720375</v>
+      </c>
+      <c r="E31">
         <f>LOG10(C31)</f>
-        <v>#NUM!</v>
+        <v>5.1685328384867768</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>35000</v>
+      </c>
+      <c r="B32">
+        <v>0.209649</v>
+      </c>
       <c r="C32">
         <f t="shared" ref="C32:C40" si="6">B32*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D32" t="e">
+        <v>209649</v>
+      </c>
+      <c r="D32">
         <f t="shared" ref="D32:D40" si="7">LOG10(A32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E32" t="e">
+        <v>4.5440680443502757</v>
+      </c>
+      <c r="E32">
         <f t="shared" ref="E32:E40" si="8">LOG10(C32)</f>
-        <v>#NUM!</v>
+        <v>5.3214927952131497</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50000</v>
+      </c>
+      <c r="B33">
+        <v>0.31216500000000003</v>
+      </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D33" t="e">
+        <v>312165</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E33" t="e">
+        <v>4.6989700043360187</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>5.4943842082748757</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>75000</v>
+      </c>
+      <c r="B34">
+        <v>0.47511900000000001</v>
+      </c>
       <c r="C34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D34" t="e">
+        <v>475119</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E34" t="e">
+        <v>4.8750612633917001</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>5.6768023981947549</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100000</v>
+      </c>
+      <c r="B35">
+        <v>0.629521</v>
+      </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D35" t="e">
+        <v>629521</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E35" t="e">
+        <v>5</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>5.7990102221833562</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>125000</v>
+      </c>
+      <c r="B36">
+        <v>0.820044</v>
+      </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D36" t="e">
+        <v>820044</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E36" t="e">
+        <v>5.0969100130080562</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>5.9138371553648668</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>250000</v>
+      </c>
+      <c r="B37">
+        <v>1.7122189999999999</v>
+      </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D37" t="e">
+        <v>1712219</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E37" t="e">
+        <v>5.3979400086720375</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>6.2335593119817663</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>500000</v>
+      </c>
+      <c r="B38">
+        <v>3.5342889999999998</v>
+      </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D38" t="e">
+        <v>3534289</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E38" t="e">
+        <v>5.6989700043360187</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>6.5483020590285799</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>750000</v>
+      </c>
+      <c r="B39">
+        <v>5.3190799999999996</v>
+      </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D39" t="e">
+        <v>5319080</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E39" t="e">
+        <v>5.8750612633917001</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>6.7258365222433616</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1000000</v>
+      </c>
+      <c r="B40">
+        <v>7.1280279999999996</v>
+      </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D40" t="e">
+        <v>7128028</v>
+      </c>
+      <c r="D40">
         <f t="shared" si="7"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E40" t="e">
+        <v>6</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>6.8529693970082812</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">

--- a/Project_1/MS_ExperimentalAnalysis.xlsx
+++ b/Project_1/MS_ExperimentalAnalysis.xlsx
@@ -532,9 +532,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -866,34 +865,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0369999999999999E-3</c:v>
+                  <c:v>5.0100000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.97E-3</c:v>
+                  <c:v>2.0070000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5129999999999997E-3</c:v>
+                  <c:v>5.5170000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5564E-2</c:v>
+                  <c:v>1.4540000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7592E-2</c:v>
+                  <c:v>3.4091000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1190000000000003E-2</c:v>
+                  <c:v>6.1663000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54344099999999995</c:v>
+                  <c:v>0.49631900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0482630000000004</c:v>
+                  <c:v>3.6999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.83183</c:v>
+                  <c:v>12.544902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.164878000000002</c:v>
+                  <c:v>30.661715000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,34 +1085,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.0259999999999993E-3</c:v>
+                  <c:v>1.0024999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6521000000000001E-2</c:v>
+                  <c:v>1.6042000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3112000000000003E-2</c:v>
+                  <c:v>2.8577000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7204999999999996E-2</c:v>
+                  <c:v>6.6680000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13936899999999999</c:v>
+                  <c:v>0.12231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20957899999999999</c:v>
+                  <c:v>0.193991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80814900000000001</c:v>
+                  <c:v>0.76402800000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3535349999999999</c:v>
+                  <c:v>3.1368390000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1942700000000004</c:v>
+                  <c:v>6.9057219999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.051288</c:v>
+                  <c:v>12.339971999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,8 +1176,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8309852357129449E-2"/>
-                  <c:y val="-4.1253938671319053E-2"/>
+                  <c:x val="0.37830343366764696"/>
+                  <c:y val="-7.5553258862402745E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1301,34 +1300,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14741199999999999</c:v>
+                  <c:v>0.14486499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.209649</c:v>
+                  <c:v>0.21356900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31216500000000003</c:v>
+                  <c:v>0.30681399999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47511900000000001</c:v>
+                  <c:v>0.48733599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.629521</c:v>
+                  <c:v>0.67028299999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.820044</c:v>
+                  <c:v>0.83121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7122189999999999</c:v>
+                  <c:v>1.79427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5342889999999998</c:v>
+                  <c:v>3.4346320000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3190799999999996</c:v>
+                  <c:v>5.3863219999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1280279999999996</c:v>
+                  <c:v>7.5109680000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,8 +1386,78 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>Algorithm 4:</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 3E-07x - 0.0008</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9986</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1396,6 +1465,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1405,6 +1504,36 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.1189000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10030699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14338200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.218079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28375600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.353439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66727300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.326527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1642809999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7558259999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1547,6 +1676,7 @@
         <c:axId val="4039168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1957,34 +2087,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0157787563890408</c:v>
+                  <c:v>2.6998377258672459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2944662261615929</c:v>
+                  <c:v>3.3025473724874854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.741387992479269</c:v>
+                  <c:v>3.7417029839577398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1921212221317052</c:v>
+                  <c:v>4.1625644065230194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5750954320148951</c:v>
+                  <c:v>4.5326397406865677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8524189929370012</c:v>
+                  <c:v>4.7900246500004728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7351524007400423</c:v>
+                  <c:v>5.6957609011034505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6072687191821533</c:v>
+                  <c:v>6.5681899862196742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1408796426056851</c:v>
+                  <c:v>7.098467272982198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5073819084792044</c:v>
+                  <c:v>7.4865964425668308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,34 +2252,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.9554953291841271</c:v>
+                  <c:v>4.0010843812922197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2180363312009446</c:v>
+                  <c:v>4.2052585120040593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5199854133927033</c:v>
+                  <c:v>4.456016634817745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8876454273058512</c:v>
+                  <c:v>4.8239955911559678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1441661839044777</c:v>
+                  <c:v>5.0874619661718192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.321347763802958</c:v>
+                  <c:v>5.2877815817807186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9074914398737128</c:v>
+                  <c:v>5.883109274835725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5255028433224274</c:v>
+                  <c:v>6.4964922288648053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8569867328027199</c:v>
+                  <c:v>6.839209091201953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1156533732597618</c:v>
+                  <c:v>7.0913141742629211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,34 +2417,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.1685328384867768</c:v>
+                  <c:v>5.1609634707510352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3214927952131497</c:v>
+                  <c:v>5.329538214152433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4943842082748757</c:v>
+                  <c:v>5.4868751726955409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6768023981947549</c:v>
+                  <c:v>5.6878284943360704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7990102221833562</c:v>
+                  <c:v>5.8262582047736799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9138371553648668</c:v>
+                  <c:v>5.9197107594272422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2335593119817663</c:v>
+                  <c:v>6.2538877958357899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5483020590285799</c:v>
+                  <c:v>6.5358802118669148</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7258365222433616</c:v>
+                  <c:v>6.7312923124329211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8529693970082812</c:v>
+                  <c:v>6.8756959117002152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2373,8 +2503,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2383,34 +2543,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.3979400086720375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.5440680443502757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.6989700043360187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.8750612633917001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.0969100130080562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.3979400086720375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.6989700043360187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.8750612633917001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,34 +2582,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.8524128923957432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.0013312416474802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.1564946339584141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.3386138470403157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.4529450534235293</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.5483144697612428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.8243035522623661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.1227160939954501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.3353136468350559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.4402517931973371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4282,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4300,7 +4460,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4326,11 +4486,11 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>1.0369999999999999E-3</v>
+        <v>5.0100000000000003E-4</v>
       </c>
       <c r="C5">
         <f>B5*1000000</f>
-        <v>1037</v>
+        <v>501.00000000000006</v>
       </c>
       <c r="D5">
         <f>LOG10(A5)</f>
@@ -4338,7 +4498,7 @@
       </c>
       <c r="E5">
         <f>LOG10(C5)</f>
-        <v>3.0157787563890408</v>
+        <v>2.6998377258672459</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4346,11 +4506,11 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>1.97E-3</v>
+        <v>2.0070000000000001E-3</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C14" si="0">B6*1000000</f>
-        <v>1970</v>
+        <v>2007</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D14" si="1">LOG10(A6)</f>
@@ -4358,7 +4518,7 @@
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E14" si="2">LOG10(C6)</f>
-        <v>3.2944662261615929</v>
+        <v>3.3025473724874854</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4366,11 +4526,11 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>5.5129999999999997E-3</v>
+        <v>5.5170000000000002E-3</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>5513</v>
+        <v>5517</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
@@ -4378,7 +4538,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>3.741387992479269</v>
+        <v>3.7417029839577398</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4386,11 +4546,11 @@
         <v>75</v>
       </c>
       <c r="B8">
-        <v>1.5564E-2</v>
+        <v>1.4540000000000001E-2</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>15564</v>
+        <v>14540</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -4398,7 +4558,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>4.1921212221317052</v>
+        <v>4.1625644065230194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4406,11 +4566,11 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>3.7592E-2</v>
+        <v>3.4091000000000003E-2</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>37592</v>
+        <v>34091</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
@@ -4418,7 +4578,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>4.5750954320148951</v>
+        <v>4.5326397406865677</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4426,11 +4586,11 @@
         <v>125</v>
       </c>
       <c r="B10">
-        <v>7.1190000000000003E-2</v>
+        <v>6.1663000000000003E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>71190</v>
+        <v>61663</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
@@ -4438,7 +4598,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>4.8524189929370012</v>
+        <v>4.7900246500004728</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4446,11 +4606,11 @@
         <v>250</v>
       </c>
       <c r="B11">
-        <v>0.54344099999999995</v>
+        <v>0.49631900000000001</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>543441</v>
+        <v>496319</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
@@ -4458,7 +4618,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>5.7351524007400423</v>
+        <v>5.6957609011034505</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4466,11 +4626,11 @@
         <v>500</v>
       </c>
       <c r="B12">
-        <v>4.0482630000000004</v>
+        <v>3.6999</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>4048263.0000000005</v>
+        <v>3699900</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -4478,7 +4638,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>6.6072687191821533</v>
+        <v>6.5681899862196742</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,11 +4646,11 @@
         <v>750</v>
       </c>
       <c r="B13">
-        <v>13.83183</v>
+        <v>12.544902</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>13831830</v>
+        <v>12544902</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -4498,7 +4658,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>7.1408796426056851</v>
+        <v>7.098467272982198</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4506,11 +4666,11 @@
         <v>1000</v>
       </c>
       <c r="B14">
-        <v>32.164878000000002</v>
+        <v>30.661715000000001</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>32164878</v>
+        <v>30661715</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
@@ -4518,11 +4678,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>7.5073819084792044</v>
+        <v>7.4865964425668308</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4548,11 +4708,11 @@
         <v>250</v>
       </c>
       <c r="B18">
-        <v>9.0259999999999993E-3</v>
+        <v>1.0024999999999999E-2</v>
       </c>
       <c r="C18">
         <f>B18*1000000</f>
-        <v>9026</v>
+        <v>10025</v>
       </c>
       <c r="D18">
         <f>LOG10(A18)</f>
@@ -4560,7 +4720,7 @@
       </c>
       <c r="E18">
         <f>LOG10(C18)</f>
-        <v>3.9554953291841271</v>
+        <v>4.0010843812922197</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4568,11 +4728,11 @@
         <v>350</v>
       </c>
       <c r="B19">
-        <v>1.6521000000000001E-2</v>
+        <v>1.6042000000000001E-2</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C27" si="3">B19*1000000</f>
-        <v>16521</v>
+        <v>16042</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:D27" si="4">LOG10(A19)</f>
@@ -4580,7 +4740,7 @@
       </c>
       <c r="E19">
         <f t="shared" ref="E19:E27" si="5">LOG10(C19)</f>
-        <v>4.2180363312009446</v>
+        <v>4.2052585120040593</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,11 +4748,11 @@
         <v>500</v>
       </c>
       <c r="B20">
-        <v>3.3112000000000003E-2</v>
+        <v>2.8577000000000002E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>33112</v>
+        <v>28577</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -4600,7 +4760,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
-        <v>4.5199854133927033</v>
+        <v>4.456016634817745</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4608,11 +4768,11 @@
         <v>750</v>
       </c>
       <c r="B21">
-        <v>7.7204999999999996E-2</v>
+        <v>6.6680000000000003E-2</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>77205</v>
+        <v>66680</v>
       </c>
       <c r="D21">
         <f t="shared" si="4"/>
@@ -4620,7 +4780,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="5"/>
-        <v>4.8876454273058512</v>
+        <v>4.8239955911559678</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4628,11 +4788,11 @@
         <v>1000</v>
       </c>
       <c r="B22">
-        <v>0.13936899999999999</v>
+        <v>0.12231</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>139369</v>
+        <v>122310</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -4640,7 +4800,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="5"/>
-        <v>5.1441661839044777</v>
+        <v>5.0874619661718192</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4648,11 +4808,11 @@
         <v>1250</v>
       </c>
       <c r="B23">
-        <v>0.20957899999999999</v>
+        <v>0.193991</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>209579</v>
+        <v>193991</v>
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
@@ -4660,7 +4820,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="5"/>
-        <v>5.321347763802958</v>
+        <v>5.2877815817807186</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,11 +4828,11 @@
         <v>2500</v>
       </c>
       <c r="B24">
-        <v>0.80814900000000001</v>
+        <v>0.76402800000000004</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>808149</v>
+        <v>764028</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
@@ -4680,7 +4840,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="5"/>
-        <v>5.9074914398737128</v>
+        <v>5.883109274835725</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,11 +4848,11 @@
         <v>5000</v>
       </c>
       <c r="B25">
-        <v>3.3535349999999999</v>
+        <v>3.1368390000000002</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>3353535</v>
+        <v>3136839</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
@@ -4700,7 +4860,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="5"/>
-        <v>6.5255028433224274</v>
+        <v>6.4964922288648053</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4708,11 +4868,11 @@
         <v>7500</v>
       </c>
       <c r="B26">
-        <v>7.1942700000000004</v>
+        <v>6.9057219999999999</v>
       </c>
       <c r="C26">
         <f t="shared" si="3"/>
-        <v>7194270</v>
+        <v>6905722</v>
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
@@ -4720,7 +4880,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>6.8569867328027199</v>
+        <v>6.839209091201953</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4728,11 +4888,11 @@
         <v>10000</v>
       </c>
       <c r="B27">
-        <v>13.051288</v>
+        <v>12.339971999999999</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>13051288</v>
+        <v>12339972</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
@@ -4740,11 +4900,11 @@
       </c>
       <c r="E27">
         <f t="shared" si="5"/>
-        <v>7.1156533732597618</v>
+        <v>7.0913141742629211</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4770,11 +4930,11 @@
         <v>25000</v>
       </c>
       <c r="B31">
-        <v>0.14741199999999999</v>
+        <v>0.14486499999999999</v>
       </c>
       <c r="C31">
         <f>B31*1000000</f>
-        <v>147412</v>
+        <v>144865</v>
       </c>
       <c r="D31">
         <f>LOG10(A31)</f>
@@ -4782,7 +4942,7 @@
       </c>
       <c r="E31">
         <f>LOG10(C31)</f>
-        <v>5.1685328384867768</v>
+        <v>5.1609634707510352</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,11 +4950,11 @@
         <v>35000</v>
       </c>
       <c r="B32">
-        <v>0.209649</v>
+        <v>0.21356900000000001</v>
       </c>
       <c r="C32">
         <f t="shared" ref="C32:C40" si="6">B32*1000000</f>
-        <v>209649</v>
+        <v>213569</v>
       </c>
       <c r="D32">
         <f t="shared" ref="D32:D40" si="7">LOG10(A32)</f>
@@ -4802,7 +4962,7 @@
       </c>
       <c r="E32">
         <f t="shared" ref="E32:E40" si="8">LOG10(C32)</f>
-        <v>5.3214927952131497</v>
+        <v>5.329538214152433</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4810,11 +4970,11 @@
         <v>50000</v>
       </c>
       <c r="B33">
-        <v>0.31216500000000003</v>
+        <v>0.30681399999999998</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>312165</v>
+        <v>306814</v>
       </c>
       <c r="D33">
         <f t="shared" si="7"/>
@@ -4822,7 +4982,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="8"/>
-        <v>5.4943842082748757</v>
+        <v>5.4868751726955409</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4830,11 +4990,11 @@
         <v>75000</v>
       </c>
       <c r="B34">
-        <v>0.47511900000000001</v>
+        <v>0.48733599999999999</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
-        <v>475119</v>
+        <v>487336</v>
       </c>
       <c r="D34">
         <f t="shared" si="7"/>
@@ -4842,7 +5002,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="8"/>
-        <v>5.6768023981947549</v>
+        <v>5.6878284943360704</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4850,11 +5010,11 @@
         <v>100000</v>
       </c>
       <c r="B35">
-        <v>0.629521</v>
+        <v>0.67028299999999996</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>629521</v>
+        <v>670283</v>
       </c>
       <c r="D35">
         <f t="shared" si="7"/>
@@ -4862,7 +5022,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="8"/>
-        <v>5.7990102221833562</v>
+        <v>5.8262582047736799</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4870,11 +5030,11 @@
         <v>125000</v>
       </c>
       <c r="B36">
-        <v>0.820044</v>
+        <v>0.83121</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>820044</v>
+        <v>831210</v>
       </c>
       <c r="D36">
         <f t="shared" si="7"/>
@@ -4882,7 +5042,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="8"/>
-        <v>5.9138371553648668</v>
+        <v>5.9197107594272422</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4890,11 +5050,11 @@
         <v>250000</v>
       </c>
       <c r="B37">
-        <v>1.7122189999999999</v>
+        <v>1.79427</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>1712219</v>
+        <v>1794270</v>
       </c>
       <c r="D37">
         <f t="shared" si="7"/>
@@ -4902,7 +5062,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="8"/>
-        <v>6.2335593119817663</v>
+        <v>6.2538877958357899</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4910,11 +5070,11 @@
         <v>500000</v>
       </c>
       <c r="B38">
-        <v>3.5342889999999998</v>
+        <v>3.4346320000000001</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>3534289</v>
+        <v>3434632</v>
       </c>
       <c r="D38">
         <f t="shared" si="7"/>
@@ -4922,7 +5082,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="8"/>
-        <v>6.5483020590285799</v>
+        <v>6.5358802118669148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,11 +5090,11 @@
         <v>750000</v>
       </c>
       <c r="B39">
-        <v>5.3190799999999996</v>
+        <v>5.3863219999999998</v>
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>5319080</v>
+        <v>5386322</v>
       </c>
       <c r="D39">
         <f t="shared" si="7"/>
@@ -4942,7 +5102,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="8"/>
-        <v>6.7258365222433616</v>
+        <v>6.7312923124329211</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4950,11 +5110,11 @@
         <v>1000000</v>
       </c>
       <c r="B40">
-        <v>7.1280279999999996</v>
+        <v>7.5109680000000001</v>
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>7128028</v>
+        <v>7510968</v>
       </c>
       <c r="D40">
         <f t="shared" si="7"/>
@@ -4962,11 +5122,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="8"/>
-        <v>6.8529693970082812</v>
+        <v>6.8756959117002152</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4988,143 +5148,203 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>250000</v>
+      </c>
+      <c r="B44">
+        <v>7.1189000000000002E-2</v>
+      </c>
       <c r="C44">
         <f>B44*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D44" t="e">
+        <v>71189</v>
+      </c>
+      <c r="D44">
         <f>LOG10(A44)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E44" t="e">
+        <v>5.3979400086720375</v>
+      </c>
+      <c r="E44">
         <f>LOG10(C44)</f>
-        <v>#NUM!</v>
+        <v>4.8524128923957432</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>350000</v>
+      </c>
+      <c r="B45">
+        <v>0.10030699999999999</v>
+      </c>
       <c r="C45">
         <f t="shared" ref="C45:C53" si="9">B45*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D45" t="e">
+        <v>100307</v>
+      </c>
+      <c r="D45">
         <f t="shared" ref="D45:D53" si="10">LOG10(A45)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E45" t="e">
+        <v>5.5440680443502757</v>
+      </c>
+      <c r="E45">
         <f t="shared" ref="E45:E53" si="11">LOG10(C45)</f>
-        <v>#NUM!</v>
+        <v>5.0013312416474802</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>500000</v>
+      </c>
+      <c r="B46">
+        <v>0.14338200000000001</v>
+      </c>
       <c r="C46">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D46" t="e">
+        <v>143382</v>
+      </c>
+      <c r="D46">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E46" t="e">
+        <v>5.6989700043360187</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>5.1564946339584141</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>750000</v>
+      </c>
+      <c r="B47">
+        <v>0.218079</v>
+      </c>
       <c r="C47">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D47" t="e">
+        <v>218079</v>
+      </c>
+      <c r="D47">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E47" t="e">
+        <v>5.8750612633917001</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>5.3386138470403157</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1000000</v>
+      </c>
+      <c r="B48">
+        <v>0.28375600000000001</v>
+      </c>
       <c r="C48">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D48" t="e">
+        <v>283756</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E48" t="e">
+        <v>6</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>5.4529450534235293</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1250000</v>
+      </c>
+      <c r="B49">
+        <v>0.353439</v>
+      </c>
       <c r="C49">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D49" t="e">
+        <v>353439</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E49" t="e">
+        <v>6.0969100130080562</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>5.5483144697612428</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2500000</v>
+      </c>
+      <c r="B50">
+        <v>0.66727300000000001</v>
+      </c>
       <c r="C50">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D50" t="e">
+        <v>667273</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E50" t="e">
+        <v>6.3979400086720375</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>5.8243035522623661</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5000000</v>
+      </c>
+      <c r="B51">
+        <v>1.326527</v>
+      </c>
       <c r="C51">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D51" t="e">
+        <v>1326527</v>
+      </c>
+      <c r="D51">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E51" t="e">
+        <v>6.6989700043360187</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>6.1227160939954501</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7500000</v>
+      </c>
+      <c r="B52">
+        <v>2.1642809999999999</v>
+      </c>
       <c r="C52">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D52" t="e">
+        <v>2164281</v>
+      </c>
+      <c r="D52">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E52" t="e">
+        <v>6.8750612633917001</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>6.3353136468350559</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10000000</v>
+      </c>
+      <c r="B53">
+        <v>2.7558259999999999</v>
+      </c>
       <c r="C53">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D53" t="e">
+        <v>2755826</v>
+      </c>
+      <c r="D53">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E53" t="e">
+        <v>7</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
+        <v>6.4402517931973371</v>
       </c>
     </row>
   </sheetData>
